--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_NhatMinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/2.XuLyBH/XLBH2112_NhatMinh.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
   </si>
 </sst>
 </file>
@@ -658,15 +667,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,16 +700,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,7 +1010,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1033,43 +1042,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1114,58 +1123,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1190,23 +1199,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,23 +1338,47 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44557</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44559</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183037789489</v>
+      </c>
       <c r="F8" s="55"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="40"/>
+      <c r="K8" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
       <c r="U8" s="67"/>
@@ -1358,23 +1391,51 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44557</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44559</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183037812877</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>71</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
       <c r="U9" s="67"/>
@@ -1701,7 +1762,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1765,7 +1826,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2042,7 +2103,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2170,7 +2231,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2202,7 +2263,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2234,7 +2295,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2874,43 +2935,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2955,58 +3016,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -3031,23 +3092,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
